--- a/Cash Invoice/Cash Invoice.xlsx
+++ b/Cash Invoice/Cash Invoice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sagar 001" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Vibha 003" sheetId="3" r:id="rId3"/>
     <sheet name="Vibha 004" sheetId="4" r:id="rId4"/>
     <sheet name="Sapna 005" sheetId="5" r:id="rId5"/>
+    <sheet name="Ambika Jewellers 006" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>SR NO</t>
   </si>
@@ -75,13 +76,40 @@
   </si>
   <si>
     <t>Service Call Charges</t>
+  </si>
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>W Box 2 MP Bullet Camera</t>
+  </si>
+  <si>
+    <t>BNC Connector</t>
+  </si>
+  <si>
+    <t>Power Connector</t>
+  </si>
+  <si>
+    <t>INSTALLATION TESTING COMMISSIONING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +131,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri  "/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -226,6 +270,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -235,16 +291,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -536,7 +595,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
@@ -545,7 +604,7 @@
     <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -562,7 +621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="27.75" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -580,7 +639,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -598,13 +657,13 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="3">
         <f>SUM(E2:E3)</f>
         <v>19650</v>
@@ -629,12 +688,12 @@
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -651,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="54.75" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -669,13 +728,13 @@
         <v>21850</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="3">
         <f>SUM(E2:E2)</f>
         <v>21850</v>
@@ -697,13 +756,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -720,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="66" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -738,13 +797,13 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="3">
         <f>SUM(E2:E2)</f>
         <v>18000</v>
@@ -766,7 +825,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.88671875" style="1" customWidth="1"/>
@@ -774,7 +833,7 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="22.8" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -791,7 +850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -809,13 +868,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="3">
         <f>SUM(E2:E2)</f>
         <v>2000</v>
@@ -833,16 +892,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -859,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -877,17 +936,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
         <v>350</v>
       </c>
       <c r="E3" s="4">
@@ -895,13 +954,13 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="3">
         <f>SUM(E2:E3)</f>
         <v>1950</v>
@@ -913,4 +972,128 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.8" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1950</v>
+      </c>
+      <c r="E2" s="14">
+        <f>C2*D2</f>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <v>60</v>
+      </c>
+      <c r="E3" s="14">
+        <f>C3*D3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.2" customHeight="1">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" ref="E4:E5" si="0">C4*D4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>250</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="13">
+        <f>SUM(E2:E5)</f>
+        <v>2310</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>